--- a/Factures_Excel/1757 - Messier & Associé, s.e.n.c.r.l..xlsx
+++ b/Factures_Excel/1757 - Messier & Associé, s.e.n.c.r.l..xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73030E47-D792-46D1-84E2-694929E18482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEFD311-AFAA-4B81-9F9B-4A57C42B2EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{FFF819C7-5623-45CA-8E26-054871C49684}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{FFF819C7-5623-45CA-8E26-054871C49684}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="2024-11-16 - 24-24638" sheetId="2" r:id="rId2"/>
     <sheet name="2024-12-22 - 24-24718" sheetId="3" r:id="rId3"/>
+    <sheet name="2025-03-31 - 25-24867" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2024-11-16 - 24-24638'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2024-12-22 - 24-24718'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2025-03-31 - 25-24867'!$A$1:$F$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
   <si>
     <t>Le 16 NOVEMBRE 2024</t>
   </si>
@@ -165,6 +167,18 @@
   </si>
   <si>
     <t xml:space="preserve"> - Question re: CDC et impact de déclarer en janvier au lieu de décembre ;</t>
+  </si>
+  <si>
+    <t>Le 31 MARS 2025</t>
+  </si>
+  <si>
+    <t>25-24867</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Diverses discussions téléphoniques avec vous relativement au transfert d'immeuble aux héritiers vs T3 </t>
+  </si>
+  <si>
+    <t>et pour utilisation de pertes par refacturation et divers autres sujets;</t>
   </si>
 </sst>
 </file>
@@ -290,7 +304,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +314,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8C8375"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +400,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -534,6 +554,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="7" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,14 +584,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -688,6 +711,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F026652-29EB-F5C8-651C-DF623A31873E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1292,13 +1381,13 @@
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1787,10 +1876,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="62" t="s">
+      <c r="B81" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="63"/>
+      <c r="C81" s="66"/>
       <c r="D81" s="55"/>
       <c r="E81" s="56">
         <v>4124.7300000000005</v>
@@ -1807,30 +1896,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="57"/>
-      <c r="B83" s="64"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="68"/>
       <c r="F83" s="58"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="66" t="s">
+      <c r="A84" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="66"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="69"/>
       <c r="F84" s="19"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="67" t="s">
+      <c r="A85" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="67"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="70"/>
       <c r="F85" s="60"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1850,14 +1939,14 @@
       <c r="F87" s="60"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="68" t="s">
+      <c r="A88" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="68"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="68"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="68"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1877,6 +1966,855 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D50D8D-EBF7-43A9-B163-4398164934C7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="D34" s="25">
+        <v>350</v>
+      </c>
+      <c r="E34" s="25">
+        <v>875</v>
+      </c>
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="24">
+        <v>1</v>
+      </c>
+      <c r="D36" s="25">
+        <v>350</v>
+      </c>
+      <c r="E36" s="25">
+        <v>350</v>
+      </c>
+      <c r="F36" s="25"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="D38" s="25">
+        <v>350</v>
+      </c>
+      <c r="E38" s="25">
+        <v>1575</v>
+      </c>
+      <c r="F38" s="25"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="D40" s="25">
+        <v>350</v>
+      </c>
+      <c r="E40" s="25">
+        <v>87.5</v>
+      </c>
+      <c r="F40" s="25"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="38"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="39">
+        <v>2887.5</v>
+      </c>
+      <c r="F69" s="39"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="41"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="42">
+        <v>0</v>
+      </c>
+      <c r="F70" s="42"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="41"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="42">
+        <v>0</v>
+      </c>
+      <c r="F71" s="42"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="41"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="42">
+        <v>0</v>
+      </c>
+      <c r="F72" s="42"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="38"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="44">
+        <v>2887.5</v>
+      </c>
+      <c r="F73" s="44"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="41"/>
+      <c r="E74" s="46">
+        <v>144.38</v>
+      </c>
+      <c r="F74" s="46"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="48">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="41"/>
+      <c r="E75" s="49">
+        <v>288.02999999999997</v>
+      </c>
+      <c r="F75" s="46"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
+      <c r="B77" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="38"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="52">
+        <v>3319.91</v>
+      </c>
+      <c r="F77" s="53"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="47"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" s="47"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="8">
+        <v>0</v>
+      </c>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="47"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="66"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="56">
+        <v>3319.91</v>
+      </c>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="57"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="58"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="19"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="60"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="59"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="60"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="59"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="60"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" s="63"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="61" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EB14FB-F6A4-4A23-8E51-263862AEB6BB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1964,7 +2902,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
@@ -2059,7 +2997,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -2086,7 +3024,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="5"/>
@@ -2132,7 +3070,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F28" s="12"/>
     </row>
@@ -2145,13 +3083,13 @@
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2183,23 +3121,17 @@
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="24">
-        <v>2.5</v>
-      </c>
-      <c r="D34" s="25">
-        <v>350</v>
-      </c>
-      <c r="E34" s="25">
-        <v>875</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="25"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="23" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="25"/>
@@ -2208,25 +3140,15 @@
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
-      <c r="B36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="24">
-        <v>1</v>
-      </c>
-      <c r="D36" s="25">
-        <v>350</v>
-      </c>
-      <c r="E36" s="25">
-        <v>350</v>
-      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="25"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
-      <c r="B37" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="B37" s="23"/>
       <c r="C37" s="24"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -2234,25 +3156,15 @@
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
-      <c r="B38" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="24">
-        <v>4.5</v>
-      </c>
-      <c r="D38" s="25">
-        <v>350</v>
-      </c>
-      <c r="E38" s="25">
-        <v>1575</v>
-      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="25"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
-      <c r="B39" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="B39" s="23"/>
       <c r="C39" s="24"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -2260,18 +3172,10 @@
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
-      <c r="B40" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="D40" s="25">
-        <v>350</v>
-      </c>
-      <c r="E40" s="25">
-        <v>87.5</v>
-      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
       <c r="F40" s="25"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2460,7 +3364,7 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
-      <c r="B64" s="23"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="30"/>
       <c r="D64" s="22"/>
       <c r="E64" s="25"/>
@@ -2469,18 +3373,26 @@
     <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="23"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="32"/>
+      <c r="C65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="E65" s="25"/>
       <c r="F65" s="25"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
       <c r="B66" s="23"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69"/>
+      <c r="C66" s="33">
+        <v>1</v>
+      </c>
+      <c r="D66" s="34">
+        <v>385</v>
+      </c>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
@@ -2506,7 +3418,7 @@
       <c r="C69" s="38"/>
       <c r="D69" s="7"/>
       <c r="E69" s="39">
-        <v>2887.5</v>
+        <v>385</v>
       </c>
       <c r="F69" s="39"/>
     </row>
@@ -2524,7 +3436,7 @@
     </row>
     <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
-      <c r="B71" s="70" t="s">
+      <c r="B71" s="62" t="s">
         <v>24</v>
       </c>
       <c r="C71" s="41"/>
@@ -2536,7 +3448,7 @@
     </row>
     <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="70" t="s">
+      <c r="B72" s="62" t="s">
         <v>25</v>
       </c>
       <c r="C72" s="41"/>
@@ -2554,7 +3466,7 @@
       <c r="C73" s="38"/>
       <c r="D73" s="7"/>
       <c r="E73" s="44">
-        <v>2887.5</v>
+        <v>385</v>
       </c>
       <c r="F73" s="44"/>
     </row>
@@ -2568,7 +3480,7 @@
       </c>
       <c r="D74" s="41"/>
       <c r="E74" s="46">
-        <v>144.38</v>
+        <v>19.25</v>
       </c>
       <c r="F74" s="46"/>
     </row>
@@ -2582,7 +3494,7 @@
       </c>
       <c r="D75" s="41"/>
       <c r="E75" s="49">
-        <v>288.02999999999997</v>
+        <v>38.4</v>
       </c>
       <c r="F75" s="46"/>
     </row>
@@ -2602,7 +3514,7 @@
       <c r="C77" s="38"/>
       <c r="D77" s="51"/>
       <c r="E77" s="52">
-        <v>3319.91</v>
+        <v>442.65</v>
       </c>
       <c r="F77" s="53"/>
     </row>
@@ -2636,13 +3548,13 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="62" t="s">
+      <c r="B81" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="63"/>
+      <c r="C81" s="66"/>
       <c r="D81" s="55"/>
       <c r="E81" s="56">
-        <v>3319.91</v>
+        <v>442.65</v>
       </c>
       <c r="F81" s="8"/>
     </row>
@@ -2656,30 +3568,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="57"/>
-      <c r="B83" s="64"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="68"/>
       <c r="F83" s="58"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="66" t="s">
+      <c r="A84" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="66"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="69"/>
       <c r="F84" s="19"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="67" t="s">
+      <c r="A85" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="67"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="70"/>
       <c r="F85" s="60"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2699,14 +3611,14 @@
       <c r="F87" s="60"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="68" t="s">
+      <c r="A88" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="68"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="68"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="68"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Factures_Excel/1757 - Messier & Associé, s.e.n.c.r.l..xlsx
+++ b/Factures_Excel/1757 - Messier & Associé, s.e.n.c.r.l..xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEFD311-AFAA-4B81-9F9B-4A57C42B2EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902DBC29-D605-4706-812C-3E9B0A51F66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{FFF819C7-5623-45CA-8E26-054871C49684}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{FFF819C7-5623-45CA-8E26-054871C49684}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="2024-11-16 - 24-24638" sheetId="2" r:id="rId2"/>
     <sheet name="2024-12-22 - 24-24718" sheetId="3" r:id="rId3"/>
     <sheet name="2025-03-31 - 25-24867" sheetId="4" r:id="rId4"/>
+    <sheet name="2025-05-18 - 25-24995" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2024-11-16 - 24-24638'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2024-12-22 - 24-24718'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2025-03-31 - 25-24867'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2025-05-18 - 25-24995'!$A$1:$F$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="54">
   <si>
     <t>Le 16 NOVEMBRE 2024</t>
   </si>
@@ -179,6 +181,33 @@
   </si>
   <si>
     <t>et pour utilisation de pertes par refacturation et divers autres sujets;</t>
+  </si>
+  <si>
+    <t>Le 18 MAI 2025</t>
+  </si>
+  <si>
+    <t>25-24995</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Révisions de déclarations de revenus ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation de formulaires T2066 et lettres aux gouvernements ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail en lien avec le calcul de la provision de gain en capital possible;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Diverses discussions téléphoniques avec vous relativement à différents sujets, dont l'exonération de résidence principale</t>
+  </si>
+  <si>
+    <t>en raison d'invalidité, fractionnement de revenus avec conjointe pour client chirurgien;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Révision de la T1 de Martin Désilet vs la transaction survenue;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Lecture, analyse et rédaction de divers courriels avec vous;</t>
   </si>
 </sst>
 </file>
@@ -560,6 +589,9 @@
     <xf numFmtId="7" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -583,9 +615,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -739,6 +768,72 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F026652-29EB-F5C8-651C-DF623A31873E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4097" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54815722-1527-9321-258C-2595B4CDFCD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1381,13 +1476,13 @@
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1876,10 +1971,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="65" t="s">
+      <c r="B81" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="66"/>
+      <c r="C81" s="67"/>
       <c r="D81" s="55"/>
       <c r="E81" s="56">
         <v>4124.7300000000005</v>
@@ -1896,30 +1991,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="57"/>
-      <c r="B83" s="67"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
       <c r="F83" s="58"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="69" t="s">
+      <c r="A84" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="69"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="70"/>
       <c r="F84" s="19"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="70"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="71"/>
       <c r="F85" s="60"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1939,14 +2034,14 @@
       <c r="F87" s="60"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="63" t="s">
+      <c r="A88" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="63"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2234,13 +2329,13 @@
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2725,10 +2820,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="65" t="s">
+      <c r="B81" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="66"/>
+      <c r="C81" s="67"/>
       <c r="D81" s="55"/>
       <c r="E81" s="56">
         <v>3319.91</v>
@@ -2745,30 +2840,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="57"/>
-      <c r="B83" s="67"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
       <c r="F83" s="58"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="69" t="s">
+      <c r="A84" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="69"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="70"/>
       <c r="F84" s="19"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="70"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="71"/>
       <c r="F85" s="60"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2788,14 +2883,14 @@
       <c r="F87" s="60"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="63" t="s">
+      <c r="A88" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="63"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2815,6 +2910,829 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EB14FB-F6A4-4A23-8E51-263862AEB6BB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="33">
+        <v>1</v>
+      </c>
+      <c r="D66" s="34">
+        <v>385</v>
+      </c>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="38"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="39">
+        <v>385</v>
+      </c>
+      <c r="F69" s="39"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="41"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="42">
+        <v>0</v>
+      </c>
+      <c r="F70" s="42"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="41"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="42">
+        <v>0</v>
+      </c>
+      <c r="F71" s="42"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="41"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="42">
+        <v>0</v>
+      </c>
+      <c r="F72" s="42"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="38"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="44">
+        <v>385</v>
+      </c>
+      <c r="F73" s="44"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="41"/>
+      <c r="E74" s="46">
+        <v>19.25</v>
+      </c>
+      <c r="F74" s="46"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="48">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="41"/>
+      <c r="E75" s="49">
+        <v>38.4</v>
+      </c>
+      <c r="F75" s="46"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
+      <c r="B77" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="38"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="52">
+        <v>442.65</v>
+      </c>
+      <c r="F77" s="53"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="47"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" s="47"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="8">
+        <v>0</v>
+      </c>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="47"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="67"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="56">
+        <v>442.65</v>
+      </c>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="57"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="58"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="70"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="70"/>
+      <c r="F84" s="19"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="60"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="59"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="60"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="59"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="60"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" s="64"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="61" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9150B1DA-43E8-4CBF-958E-EFB5684BBDCB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2902,7 +3820,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="71"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
@@ -2997,7 +3915,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -3070,7 +3988,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F28" s="12"/>
     </row>
@@ -3083,13 +4001,13 @@
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3121,7 +4039,7 @@
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="25"/>
@@ -3131,7 +4049,7 @@
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="23" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="25"/>
@@ -3140,7 +4058,9 @@
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
-      <c r="B36" s="23"/>
+      <c r="B36" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="C36" s="24"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
@@ -3148,7 +4068,9 @@
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="C37" s="24"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -3156,7 +4078,9 @@
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
-      <c r="B38" s="23"/>
+      <c r="B38" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="C38" s="24"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -3164,7 +4088,9 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="C39" s="24"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -3172,7 +4098,9 @@
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
-      <c r="B40" s="23"/>
+      <c r="B40" s="23" t="s">
+        <v>50</v>
+      </c>
       <c r="C40" s="26"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -3180,7 +4108,9 @@
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="23" t="s">
+        <v>51</v>
+      </c>
       <c r="C41" s="24"/>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
@@ -3188,7 +4118,9 @@
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
-      <c r="B42" s="23"/>
+      <c r="B42" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="C42" s="24"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -3196,7 +4128,9 @@
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
-      <c r="B43" s="23"/>
+      <c r="B43" s="23" t="s">
+        <v>52</v>
+      </c>
       <c r="C43" s="24"/>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
@@ -3204,7 +4138,9 @@
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
-      <c r="B44" s="23"/>
+      <c r="B44" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="C44" s="24"/>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
@@ -3212,7 +4148,9 @@
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
-      <c r="B45" s="23"/>
+      <c r="B45" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="C45" s="24"/>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
@@ -3356,7 +4294,7 @@
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
-      <c r="B63" s="36"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="28"/>
       <c r="D63" s="29"/>
       <c r="E63" s="25"/>
@@ -3364,7 +4302,7 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
-      <c r="B64" s="36"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="30"/>
       <c r="D64" s="22"/>
       <c r="E64" s="25"/>
@@ -3386,7 +4324,7 @@
       <c r="A66" s="18"/>
       <c r="B66" s="23"/>
       <c r="C66" s="33">
-        <v>1</v>
+        <v>9.5</v>
       </c>
       <c r="D66" s="34">
         <v>385</v>
@@ -3396,7 +4334,7 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
-      <c r="B67" s="36"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="33"/>
       <c r="D67" s="34"/>
       <c r="E67" s="25"/>
@@ -3404,7 +4342,7 @@
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
-      <c r="B68" s="36"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
       <c r="E68" s="37"/>
@@ -3418,7 +4356,7 @@
       <c r="C69" s="38"/>
       <c r="D69" s="7"/>
       <c r="E69" s="39">
-        <v>385</v>
+        <v>3657.5</v>
       </c>
       <c r="F69" s="39"/>
     </row>
@@ -3430,7 +4368,7 @@
       <c r="C70" s="41"/>
       <c r="D70" s="7"/>
       <c r="E70" s="42">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F70" s="42"/>
     </row>
@@ -3466,7 +4404,7 @@
       <c r="C73" s="38"/>
       <c r="D73" s="7"/>
       <c r="E73" s="44">
-        <v>385</v>
+        <v>3697.5</v>
       </c>
       <c r="F73" s="44"/>
     </row>
@@ -3480,7 +4418,7 @@
       </c>
       <c r="D74" s="41"/>
       <c r="E74" s="46">
-        <v>19.25</v>
+        <v>184.88</v>
       </c>
       <c r="F74" s="46"/>
     </row>
@@ -3494,7 +4432,7 @@
       </c>
       <c r="D75" s="41"/>
       <c r="E75" s="49">
-        <v>38.4</v>
+        <v>368.83</v>
       </c>
       <c r="F75" s="46"/>
     </row>
@@ -3514,7 +4452,7 @@
       <c r="C77" s="38"/>
       <c r="D77" s="51"/>
       <c r="E77" s="52">
-        <v>442.65</v>
+        <v>4251.21</v>
       </c>
       <c r="F77" s="53"/>
     </row>
@@ -3548,13 +4486,13 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="65" t="s">
+      <c r="B81" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="66"/>
+      <c r="C81" s="67"/>
       <c r="D81" s="55"/>
       <c r="E81" s="56">
-        <v>442.65</v>
+        <v>4251.21</v>
       </c>
       <c r="F81" s="8"/>
     </row>
@@ -3568,30 +4506,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="57"/>
-      <c r="B83" s="67"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
       <c r="F83" s="58"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="69" t="s">
+      <c r="A84" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="69"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="70"/>
       <c r="F84" s="19"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="70"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="71"/>
       <c r="F85" s="60"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3611,14 +4549,14 @@
       <c r="F87" s="60"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="63" t="s">
+      <c r="A88" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="63"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="6">
